--- a/Data Preparation & Analysis/Outputs/HealthIncomeHistogramm.xlsx
+++ b/Data Preparation & Analysis/Outputs/HealthIncomeHistogramm.xlsx
@@ -6,8 +6,10 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Sample" sheetId="1" r:id="rId2"/>
-    <sheet name="Negative Transition" sheetId="2" r:id="rId3"/>
+    <sheet name="Deciles" sheetId="1" r:id="rId2"/>
+    <sheet name="Percentiles" sheetId="2" r:id="rId3"/>
+    <sheet name="Percentiles XAxis" sheetId="3" r:id="rId4"/>
+    <sheet name="Deciles XAxis" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -57,112 +59,112 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>-0.14632309811511404</v>
+        <v>-0.15180530540383011</v>
       </c>
       <c r="B1">
-        <v>0.59470460134182546</v>
+        <v>0.61903552458648614</v>
       </c>
       <c r="C1">
-        <v>5519</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.6315745124360292</v>
+        <v>2.2456792826793284</v>
       </c>
       <c r="B2">
-        <v>0.54681426231203423</v>
+        <v>0.56059611680858523</v>
       </c>
       <c r="C2">
-        <v>5514</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.91595972692791439</v>
+        <v>0.77832251755852855</v>
       </c>
       <c r="B3">
-        <v>0.51847231197264199</v>
+        <v>0.55447124095551192</v>
       </c>
       <c r="C3">
-        <v>5517</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.0971814415608738</v>
+        <v>1.2489761691966119</v>
       </c>
       <c r="B4">
-        <v>0.50208565825025753</v>
+        <v>0.52187538373672626</v>
       </c>
       <c r="C4">
-        <v>5516</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.84289460609401512</v>
+        <v>1.5328441315992998</v>
       </c>
       <c r="B5">
-        <v>0.51255617404077591</v>
+        <v>0.53513585671961816</v>
       </c>
       <c r="C5">
-        <v>5525</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.52760314041713496</v>
+        <v>0.2845950460221861</v>
       </c>
       <c r="B6">
-        <v>0.50919792619922688</v>
+        <v>0.53440580006634786</v>
       </c>
       <c r="C6">
-        <v>5512</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1.0241910624062414</v>
+        <v>1.1346948571586031</v>
       </c>
       <c r="B7">
-        <v>0.51016862464418133</v>
+        <v>0.5349040617494849</v>
       </c>
       <c r="C7">
-        <v>5506</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.14921789956114451</v>
+        <v>0.1758609325163672</v>
       </c>
       <c r="B8">
-        <v>0.50542165724758914</v>
+        <v>0.53730342505789352</v>
       </c>
       <c r="C8">
-        <v>5515</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.95459530696121464</v>
+        <v>-1.151167984486976</v>
       </c>
       <c r="B9">
-        <v>0.54183709210006448</v>
+        <v>0.57026186422455649</v>
       </c>
       <c r="C9">
-        <v>5512</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1.5700540803717355</v>
+        <v>1.5248689560846804</v>
       </c>
       <c r="B10">
-        <v>0.59130208256200523</v>
+        <v>0.61580476209547597</v>
       </c>
       <c r="C10">
-        <v>5515</v>
+        <v>4945</v>
       </c>
     </row>
   </sheetData>
@@ -171,117 +173,2335 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C100"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>-4.1180816380664558</v>
+      </c>
+      <c r="B1">
+        <v>1.9523476336028902</v>
+      </c>
+      <c r="C1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>-0.035814088763612688</v>
+      </c>
+      <c r="B2">
+        <v>2.170640909198521</v>
+      </c>
+      <c r="C2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>-0.70336423325635156</v>
+      </c>
+      <c r="B3">
+        <v>2.0287391477496279</v>
+      </c>
+      <c r="C3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>-1.5469206453573825</v>
+      </c>
+      <c r="B4">
+        <v>1.9664552385059466</v>
+      </c>
+      <c r="C4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3.1962398189282126</v>
+      </c>
+      <c r="B5">
+        <v>1.8332259986435757</v>
+      </c>
+      <c r="C5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>-0.76156131474658695</v>
+      </c>
+      <c r="B6">
+        <v>1.8401646867100854</v>
+      </c>
+      <c r="C6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1.9702401566601957</v>
+      </c>
+      <c r="B7">
+        <v>2.0238381561724248</v>
+      </c>
+      <c r="C7">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>-0.8721666817713265</v>
+      </c>
+      <c r="B8">
+        <v>1.9000923141149744</v>
+      </c>
+      <c r="C8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.64657308405095881</v>
+      </c>
+      <c r="B9">
+        <v>2.0545044141452933</v>
+      </c>
+      <c r="C9">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.71849710255981936</v>
+      </c>
+      <c r="B10">
+        <v>1.7704973650900722</v>
+      </c>
+      <c r="C10">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>4.1147481513745854</v>
+      </c>
+      <c r="B11">
+        <v>1.7638093238576715</v>
+      </c>
+      <c r="C11">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2.0896543356088491</v>
+      </c>
+      <c r="B12">
+        <v>1.7420532880419346</v>
+      </c>
+      <c r="C12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2.3450945459230983</v>
+      </c>
+      <c r="B13">
+        <v>1.7618631953214665</v>
+      </c>
+      <c r="C13">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>-0.80129392523514598</v>
+      </c>
+      <c r="B14">
+        <v>1.7142883790719752</v>
+      </c>
+      <c r="C14">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2.8697495508675623</v>
+      </c>
+      <c r="B15">
+        <v>1.8905204718292365</v>
+      </c>
+      <c r="C15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.8258457915951507</v>
+      </c>
+      <c r="B16">
+        <v>1.7791686012447292</v>
+      </c>
+      <c r="C16">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>3.8527447125207073</v>
+      </c>
+      <c r="B17">
+        <v>1.9369151372695375</v>
+      </c>
+      <c r="C17">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2.6993507770576861</v>
+      </c>
+      <c r="B18">
+        <v>1.6623648125136314</v>
+      </c>
+      <c r="C18">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>4.0004672077503285</v>
+      </c>
+      <c r="B19">
+        <v>1.7866059648649846</v>
+      </c>
+      <c r="C19">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.46075259892627446</v>
+      </c>
+      <c r="B20">
+        <v>1.673625554073279</v>
+      </c>
+      <c r="C20">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2.1649912397871134</v>
+      </c>
+      <c r="B21">
+        <v>1.8138731692761578</v>
+      </c>
+      <c r="C21">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.82648579761235397</v>
+      </c>
+      <c r="B22">
+        <v>1.7184665135166948</v>
+      </c>
+      <c r="C22">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.23532811174489032</v>
+      </c>
+      <c r="B23">
+        <v>1.5236101157248871</v>
+      </c>
+      <c r="C23">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>1.7743305407072369</v>
+      </c>
+      <c r="B24">
+        <v>1.6037865620423988</v>
+      </c>
+      <c r="C24">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-0.16413505631263811</v>
+      </c>
+      <c r="B25">
+        <v>1.4888131645914768</v>
+      </c>
+      <c r="C25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.066666298067038846</v>
+      </c>
+      <c r="B26">
+        <v>1.7643335055176257</v>
+      </c>
+      <c r="C26">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>1.9243701048571653</v>
+      </c>
+      <c r="B27">
+        <v>1.7278211537101058</v>
+      </c>
+      <c r="C27">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>-0.073501092702270995</v>
+      </c>
+      <c r="B28">
+        <v>1.8064786867208238</v>
+      </c>
+      <c r="C28">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.79734844631618929</v>
+      </c>
+      <c r="B29">
+        <v>1.9850715546953122</v>
+      </c>
+      <c r="C29">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.23299572877209596</v>
+      </c>
+      <c r="B30">
+        <v>2.0322485888234567</v>
+      </c>
+      <c r="C30">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>1.7135485560305206</v>
+      </c>
+      <c r="B31">
+        <v>1.7184293105036381</v>
+      </c>
+      <c r="C31">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>4.1999411997168954</v>
+      </c>
+      <c r="B32">
+        <v>1.7064321044001503</v>
+      </c>
+      <c r="C32">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.37163884630087418</v>
+      </c>
+      <c r="B33">
+        <v>1.3485691301021794</v>
+      </c>
+      <c r="C33">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>3.0927514394124347</v>
+      </c>
+      <c r="B34">
+        <v>1.5894915232342037</v>
+      </c>
+      <c r="C34">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>3.0411866338629472</v>
+      </c>
+      <c r="B35">
+        <v>1.7043147839271746</v>
+      </c>
+      <c r="C35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>2.20424558851454</v>
+      </c>
+      <c r="B36">
+        <v>1.549196369552569</v>
+      </c>
+      <c r="C36">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.25698332632741622</v>
+      </c>
+      <c r="B37">
+        <v>1.7930313951295171</v>
+      </c>
+      <c r="C37">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>-0.61395563121741492</v>
+      </c>
+      <c r="B38">
+        <v>1.775281776472996</v>
+      </c>
+      <c r="C38">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>-0.25081271547259709</v>
+      </c>
+      <c r="B39">
+        <v>1.7298955402448595</v>
+      </c>
+      <c r="C39">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>-1.5341241890602266</v>
+      </c>
+      <c r="B40">
+        <v>1.5313200710243484</v>
+      </c>
+      <c r="C40">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>1.9701043023003473</v>
+      </c>
+      <c r="B41">
+        <v>1.7047509325100634</v>
+      </c>
+      <c r="C41">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>-0.14708302764274814</v>
+      </c>
+      <c r="B42">
+        <v>1.8988529367150815</v>
+      </c>
+      <c r="C42">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.73412573457968355</v>
+      </c>
+      <c r="B43">
+        <v>1.6698513132951958</v>
+      </c>
+      <c r="C43">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.71002808387833416</v>
+      </c>
+      <c r="B44">
+        <v>1.6923102047897307</v>
+      </c>
+      <c r="C44">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.35909423364801446</v>
+      </c>
+      <c r="B45">
+        <v>1.747926602703022</v>
+      </c>
+      <c r="C45">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.75509123368696729</v>
+      </c>
+      <c r="B46">
+        <v>1.8435257755023877</v>
+      </c>
+      <c r="C46">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.4209814573589124</v>
+      </c>
+      <c r="B47">
+        <v>1.5630723633076833</v>
+      </c>
+      <c r="C47">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>5.7952106107151247</v>
+      </c>
+      <c r="B48">
+        <v>1.6705855102160236</v>
+      </c>
+      <c r="C48">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>2.8781569231595241</v>
+      </c>
+      <c r="B49">
+        <v>1.6211257535997277</v>
+      </c>
+      <c r="C49">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1.7767219235198666</v>
+      </c>
+      <c r="B50">
+        <v>1.4636355499046565</v>
+      </c>
+      <c r="C50">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>-0.29225927661118517</v>
+      </c>
+      <c r="B51">
+        <v>1.1609615665809445</v>
+      </c>
+      <c r="C51">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>-11.03781967163086</v>
+      </c>
+      <c r="B52">
+        <v>3.7652421461296219</v>
+      </c>
+      <c r="C52">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1.4118523992673315</v>
+      </c>
+      <c r="B53">
+        <v>1.4106589620917267</v>
+      </c>
+      <c r="C53">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.86054430509868418</v>
+      </c>
+      <c r="B54">
+        <v>1.7963287383307827</v>
+      </c>
+      <c r="C54">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>-0.21731135821101641</v>
+      </c>
+      <c r="B55">
+        <v>1.5347719080466906</v>
+      </c>
+      <c r="C55">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>-1.5493102749349617</v>
+      </c>
+      <c r="B56">
+        <v>1.7655713845586078</v>
+      </c>
+      <c r="C56">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.19376712375217015</v>
+      </c>
+      <c r="B57">
+        <v>1.883439922083362</v>
+      </c>
+      <c r="C57">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.92510219535442317</v>
+      </c>
+      <c r="B58">
+        <v>1.7017572862057957</v>
+      </c>
+      <c r="C58">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>3.1100245719013908</v>
+      </c>
+      <c r="B59">
+        <v>1.7786197665081509</v>
+      </c>
+      <c r="C59">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1.6284086824667574</v>
+      </c>
+      <c r="B60">
+        <v>1.7719189813040281</v>
+      </c>
+      <c r="C60">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.36160483727088344</v>
+      </c>
+      <c r="B61">
+        <v>1.6517186846052709</v>
+      </c>
+      <c r="C61">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1.9417910335039852</v>
+      </c>
+      <c r="B62">
+        <v>1.5915322739939874</v>
+      </c>
+      <c r="C62">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>2.0784494793368684</v>
+      </c>
+      <c r="B63">
+        <v>1.6734171958419279</v>
+      </c>
+      <c r="C63">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>2.3397815824809829</v>
+      </c>
+      <c r="B64">
+        <v>1.7671142992017745</v>
+      </c>
+      <c r="C64">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>-0.67363511673127763</v>
+      </c>
+      <c r="B65">
+        <v>1.803854939770287</v>
+      </c>
+      <c r="C65">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>3.894967167966279</v>
+      </c>
+      <c r="B66">
+        <v>1.8141022996377183</v>
+      </c>
+      <c r="C66">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.79482598738236865</v>
+      </c>
+      <c r="B67">
+        <v>1.6976150563537777</v>
+      </c>
+      <c r="C67">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1.3765365894024189</v>
+      </c>
+      <c r="B68">
+        <v>1.7260685657838468</v>
+      </c>
+      <c r="C68">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>-0.38268887298275728</v>
+      </c>
+      <c r="B69">
+        <v>1.6303980133364415</v>
+      </c>
+      <c r="C69">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>-0.37075690605379791</v>
+      </c>
+      <c r="B70">
+        <v>1.5470647859745821</v>
+      </c>
+      <c r="C70">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1.2820580299454507</v>
+      </c>
+      <c r="B71">
+        <v>1.6288298824996246</v>
+      </c>
+      <c r="C71">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>-1.099647923318561</v>
+      </c>
+      <c r="B72">
+        <v>1.5407096252905124</v>
+      </c>
+      <c r="C72">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1.6465680725720464</v>
+      </c>
+      <c r="B73">
+        <v>1.7929377697194333</v>
+      </c>
+      <c r="C73">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>-0.063702962856100068</v>
+      </c>
+      <c r="B74">
+        <v>1.5435889658338546</v>
+      </c>
+      <c r="C74">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>-0.31713041699367012</v>
+      </c>
+      <c r="B75">
+        <v>1.627430065176511</v>
+      </c>
+      <c r="C75">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>2.3578827058426057</v>
+      </c>
+      <c r="B76">
+        <v>1.5718150531181698</v>
+      </c>
+      <c r="C76">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>-0.68606544988840701</v>
+      </c>
+      <c r="B77">
+        <v>1.978319726023831</v>
+      </c>
+      <c r="C77">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>-0.63402397078697126</v>
+      </c>
+      <c r="B78">
+        <v>1.6590453440703237</v>
+      </c>
+      <c r="C78">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>-1.6829007158375751</v>
+      </c>
+      <c r="B79">
+        <v>1.8079035290469665</v>
+      </c>
+      <c r="C79">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.9796212771643511</v>
+      </c>
+      <c r="B80">
+        <v>1.7976539617786422</v>
+      </c>
+      <c r="C80">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.44658509456750117</v>
+      </c>
+      <c r="B81">
+        <v>1.8681399114446835</v>
+      </c>
+      <c r="C81">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>-2.9969958216555206</v>
+      </c>
+      <c r="B82">
+        <v>1.8269006569220743</v>
+      </c>
+      <c r="C82">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>-2.5630333640358667</v>
+      </c>
+      <c r="B83">
+        <v>1.7643831087998298</v>
+      </c>
+      <c r="C83">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>-0.49666024026600458</v>
+      </c>
+      <c r="B84">
+        <v>1.7410166981706081</v>
+      </c>
+      <c r="C84">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>-1.1447957510900015</v>
+      </c>
+      <c r="B85">
+        <v>1.911129176390689</v>
+      </c>
+      <c r="C85">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>-0.9951149316197897</v>
+      </c>
+      <c r="B86">
+        <v>1.5970488062522565</v>
+      </c>
+      <c r="C86">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>-1.4332641865716689</v>
+      </c>
+      <c r="B87">
+        <v>1.8482206979448659</v>
+      </c>
+      <c r="C87">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>-0.52685134579436943</v>
+      </c>
+      <c r="B88">
+        <v>1.7986382159592913</v>
+      </c>
+      <c r="C88">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1.1706904361122532</v>
+      </c>
+      <c r="B89">
+        <v>1.7925869910909933</v>
+      </c>
+      <c r="C89">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>-2.9731811600502089</v>
+      </c>
+      <c r="B90">
+        <v>1.8747146830728707</v>
+      </c>
+      <c r="C90">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>-3.8975958264308419</v>
+      </c>
+      <c r="B91">
+        <v>2.0855762280724233</v>
+      </c>
+      <c r="C91">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>-0.41682082667495263</v>
+      </c>
+      <c r="B92">
+        <v>1.7904634250478724</v>
+      </c>
+      <c r="C92">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>-0.32504710187815655</v>
+      </c>
+      <c r="B93">
+        <v>1.6841016027392848</v>
+      </c>
+      <c r="C93">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1.9470668746392255</v>
+      </c>
+      <c r="B94">
+        <v>1.6360048685664734</v>
+      </c>
+      <c r="C94">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>-0.93079986572265627</v>
+      </c>
+      <c r="B95">
+        <v>1.9023266600532995</v>
+      </c>
+      <c r="C95">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>4.4774695408006426</v>
+      </c>
+      <c r="B96">
+        <v>1.7217865016124398</v>
+      </c>
+      <c r="C96">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.38364871246646148</v>
+      </c>
+      <c r="B97">
+        <v>2.0705468365496946</v>
+      </c>
+      <c r="C97">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>4.5548693467730939</v>
+      </c>
+      <c r="B98">
+        <v>2.1726738428331753</v>
+      </c>
+      <c r="C98">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1.7914328950824159</v>
+      </c>
+      <c r="B99">
+        <v>2.0911915467384321</v>
+      </c>
+      <c r="C99">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>7.6788826760975457</v>
+      </c>
+      <c r="B100">
+        <v>2.1813664089128308</v>
+      </c>
+      <c r="C100">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C100"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>-58.576342611601859</v>
+      </c>
+      <c r="B1">
+        <v>0.73036760035607862</v>
+      </c>
+      <c r="C1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>-38.339365556504994</v>
+      </c>
+      <c r="B2">
+        <v>0.11515124808324632</v>
+      </c>
+      <c r="C2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>-31.297671379830675</v>
+      </c>
+      <c r="B3">
+        <v>0.067145933368280245</v>
+      </c>
+      <c r="C3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>-27.004852109966855</v>
+      </c>
+      <c r="B4">
+        <v>0.047439132293167978</v>
+      </c>
+      <c r="C4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>-23.948245604511214</v>
+      </c>
+      <c r="B5">
+        <v>0.034097826080897453</v>
+      </c>
+      <c r="C5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>-21.590877070571437</v>
+      </c>
+      <c r="B6">
+        <v>0.02636251158519232</v>
+      </c>
+      <c r="C6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>-19.647208155890709</v>
+      </c>
+      <c r="B7">
+        <v>0.02344305160979732</v>
+      </c>
+      <c r="C7">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>-17.956330867728802</v>
+      </c>
+      <c r="B8">
+        <v>0.020013298509313732</v>
+      </c>
+      <c r="C8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>-16.552558240023526</v>
+      </c>
+      <c r="B9">
+        <v>0.01736639172302409</v>
+      </c>
+      <c r="C9">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>-15.317930694533747</v>
+      </c>
+      <c r="B10">
+        <v>0.014474576621517757</v>
+      </c>
+      <c r="C10">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>-14.313749274822197</v>
+      </c>
+      <c r="B11">
+        <v>0.011600633366872755</v>
+      </c>
+      <c r="C11">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>-13.396483535226057</v>
+      </c>
+      <c r="B12">
+        <v>0.011840012890950078</v>
+      </c>
+      <c r="C12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>-12.560053663542776</v>
+      </c>
+      <c r="B13">
+        <v>0.010177841924021051</v>
+      </c>
+      <c r="C13">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>-11.803309863395537</v>
+      </c>
+      <c r="B14">
+        <v>0.00941425051257248</v>
+      </c>
+      <c r="C14">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>-11.107841559130737</v>
+      </c>
+      <c r="B15">
+        <v>0.0089502601323759451</v>
+      </c>
+      <c r="C15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>-10.432965766059027</v>
+      </c>
+      <c r="B16">
+        <v>0.0087494592607089434</v>
+      </c>
+      <c r="C16">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>-9.8335719127886687</v>
+      </c>
+      <c r="B17">
+        <v>0.0073893708231714608</v>
+      </c>
+      <c r="C17">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>-9.2882880336106428</v>
+      </c>
+      <c r="B18">
+        <v>0.0071362539233582288</v>
+      </c>
+      <c r="C18">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>-8.7509860451887498</v>
+      </c>
+      <c r="B19">
+        <v>0.0068513431572772765</v>
+      </c>
+      <c r="C19">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>-8.2607433492487132</v>
+      </c>
+      <c r="B20">
+        <v>0.0061524926332122403</v>
+      </c>
+      <c r="C20">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>-7.8094350461535127</v>
+      </c>
+      <c r="B21">
+        <v>0.00534363969590727</v>
+      </c>
+      <c r="C21">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>-7.3990755543564308</v>
+      </c>
+      <c r="B22">
+        <v>0.0053557324302517363</v>
+      </c>
+      <c r="C22">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>-6.9927542667196256</v>
+      </c>
+      <c r="B23">
+        <v>0.0051460241954922213</v>
+      </c>
+      <c r="C23">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>-6.5844401502416199</v>
+      </c>
+      <c r="B24">
+        <v>0.0049180421055907185</v>
+      </c>
+      <c r="C24">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-6.2198209319451845</v>
+      </c>
+      <c r="B25">
+        <v>0.0051387798372122236</v>
+      </c>
+      <c r="C25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>-5.8598391990429963</v>
+      </c>
+      <c r="B26">
+        <v>0.0040491176964699404</v>
+      </c>
+      <c r="C26">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>-5.5446939458750713</v>
+      </c>
+      <c r="B27">
+        <v>0.0036915022691468512</v>
+      </c>
+      <c r="C27">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>-5.2464276383280275</v>
+      </c>
+      <c r="B28">
+        <v>0.0042006192904357397</v>
+      </c>
+      <c r="C28">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>-4.9393465022848106</v>
+      </c>
+      <c r="B29">
+        <v>0.0037397030300764891</v>
+      </c>
+      <c r="C29">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>-4.6534829380536324</v>
+      </c>
+      <c r="B30">
+        <v>0.0033841435797044945</v>
+      </c>
+      <c r="C30">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>-4.3872991920965401</v>
+      </c>
+      <c r="B31">
+        <v>0.0035470480828130239</v>
+      </c>
+      <c r="C31">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>-4.1226781040731106</v>
+      </c>
+      <c r="B32">
+        <v>0.003416890098342935</v>
+      </c>
+      <c r="C32">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>-3.8581689668570451</v>
+      </c>
+      <c r="B33">
+        <v>0.0033149270705652477</v>
+      </c>
+      <c r="C33">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>-3.6010336490592572</v>
+      </c>
+      <c r="B34">
+        <v>0.0033142567125549441</v>
+      </c>
+      <c r="C34">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>-3.3331913219289739</v>
+      </c>
+      <c r="B35">
+        <v>0.003439195314455495</v>
+      </c>
+      <c r="C35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>-3.0598238328490592</v>
+      </c>
+      <c r="B36">
+        <v>0.0037473880877118035</v>
+      </c>
+      <c r="C36">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>-2.7913209416212572</v>
+      </c>
+      <c r="B37">
+        <v>0.0030128538521678157</v>
+      </c>
+      <c r="C37">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>-2.6051149489188048</v>
+      </c>
+      <c r="B38">
+        <v>0.0024665577033518627</v>
+      </c>
+      <c r="C38">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>-2.3769510432927294</v>
+      </c>
+      <c r="B39">
+        <v>0.0028763513222124521</v>
+      </c>
+      <c r="C39">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>-2.2035726825235344</v>
+      </c>
+      <c r="B40">
+        <v>0.001592237732089567</v>
+      </c>
+      <c r="C40">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>-2.0171575832848596</v>
+      </c>
+      <c r="B41">
+        <v>0.0030204855547400905</v>
+      </c>
+      <c r="C41">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>-1.7956526639007846</v>
+      </c>
+      <c r="B42">
+        <v>0.0022919132132879312</v>
+      </c>
+      <c r="C42">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>-1.5996124619185323</v>
+      </c>
+      <c r="B43">
+        <v>0.003136552404812528</v>
+      </c>
+      <c r="C43">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>-1.3656728132806644</v>
+      </c>
+      <c r="B44">
+        <v>0.002482989493390729</v>
+      </c>
+      <c r="C44">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>-1.1594061890111762</v>
+      </c>
+      <c r="B45">
+        <v>0.0027334984510381712</v>
+      </c>
+      <c r="C45">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>-0.95414623431485113</v>
+      </c>
+      <c r="B46">
+        <v>0.0028698814504349449</v>
+      </c>
+      <c r="C46">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>-0.751528017192717</v>
+      </c>
+      <c r="B47">
+        <v>0.0032507797327938947</v>
+      </c>
+      <c r="C47">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>-0.52167548994575963</v>
+      </c>
+      <c r="B48">
+        <v>0.0025902040559356212</v>
+      </c>
+      <c r="C48">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>-0.35236266082253198</v>
+      </c>
+      <c r="B49">
+        <v>0.0033011380442498775</v>
+      </c>
+      <c r="C49">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>-0.1347365222796045</v>
+      </c>
+      <c r="B50">
+        <v>0.0033272834602121955</v>
+      </c>
+      <c r="C50">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>-0.00030077487858452899</v>
+      </c>
+      <c r="B51">
+        <v>5.3083703734463322e-005</v>
+      </c>
+      <c r="C51">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.024187564849853516</v>
+      </c>
+      <c r="B52">
+        <v>0.0011803327515568633</v>
+      </c>
+      <c r="C52">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.17953358515344484</v>
+      </c>
+      <c r="B53">
+        <v>0.0027283199929102326</v>
+      </c>
+      <c r="C53">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.38653089389627276</v>
+      </c>
+      <c r="B54">
+        <v>0.002817092233475941</v>
+      </c>
+      <c r="C54">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.54738652525526099</v>
+      </c>
+      <c r="B55">
+        <v>0.0029158659851258924</v>
+      </c>
+      <c r="C55">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.77784738318640212</v>
+      </c>
+      <c r="B56">
+        <v>0.0032275682624156648</v>
+      </c>
+      <c r="C56">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.96854688218145657</v>
+      </c>
+      <c r="B57">
+        <v>0.0030769444707280957</v>
+      </c>
+      <c r="C57">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1.177789200676812</v>
+      </c>
+      <c r="B58">
+        <v>0.002976994713895992</v>
+      </c>
+      <c r="C58">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1.3756473583248463</v>
+      </c>
+      <c r="B59">
+        <v>0.002382425294198031</v>
+      </c>
+      <c r="C59">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1.5972465548852477</v>
+      </c>
+      <c r="B60">
+        <v>0.0029512065602455388</v>
+      </c>
+      <c r="C60">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1.7896974197766076</v>
+      </c>
+      <c r="B61">
+        <v>0.0024043128547204173</v>
+      </c>
+      <c r="C61">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>2.0182645573760523</v>
+      </c>
+      <c r="B62">
+        <v>0.0032034799794587389</v>
+      </c>
+      <c r="C62">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>2.2131740003244422</v>
+      </c>
+      <c r="B63">
+        <v>0.0016758464430111459</v>
+      </c>
+      <c r="C63">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>2.3817196936356395</v>
+      </c>
+      <c r="B64">
+        <v>0.002809096851553095</v>
+      </c>
+      <c r="C64">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>2.5948077360788981</v>
+      </c>
+      <c r="B65">
+        <v>0.0026146390769504571</v>
+      </c>
+      <c r="C65">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>2.7934906482696533</v>
+      </c>
+      <c r="B66">
+        <v>0.0030162860410767691</v>
+      </c>
+      <c r="C66">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>3.0513750866206006</v>
+      </c>
+      <c r="B67">
+        <v>0.0032360707941191925</v>
+      </c>
+      <c r="C67">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>3.2941473288092054</v>
+      </c>
+      <c r="B68">
+        <v>0.0030859619022795613</v>
+      </c>
+      <c r="C68">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>3.5575957568004877</v>
+      </c>
+      <c r="B69">
+        <v>0.0036104493550589895</v>
+      </c>
+      <c r="C69">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>3.8330561801006922</v>
+      </c>
+      <c r="B70">
+        <v>0.0035395653913302383</v>
+      </c>
+      <c r="C70">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>4.1050134389087409</v>
+      </c>
+      <c r="B71">
+        <v>0.0033961917208367508</v>
+      </c>
+      <c r="C71">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>4.3726418567802723</v>
+      </c>
+      <c r="B72">
+        <v>0.0032633473602633181</v>
+      </c>
+      <c r="C72">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>4.6343013276859208</v>
+      </c>
+      <c r="B73">
+        <v>0.0033752505129368755</v>
+      </c>
+      <c r="C73">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>4.9052680208225441</v>
+      </c>
+      <c r="B74">
+        <v>0.0037385773591818907</v>
+      </c>
+      <c r="C74">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>5.2195467089834482</v>
+      </c>
+      <c r="B75">
+        <v>0.0043464899339507104</v>
+      </c>
+      <c r="C75">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>5.5404719815109713</v>
+      </c>
+      <c r="B76">
+        <v>0.0040954177766949103</v>
+      </c>
+      <c r="C76">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>5.8671378693599934</v>
+      </c>
+      <c r="B77">
+        <v>0.0043683560370805456</v>
+      </c>
+      <c r="C77">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>6.2126198768615719</v>
+      </c>
+      <c r="B78">
+        <v>0.0045787521453009971</v>
+      </c>
+      <c r="C78">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>6.5880670431888468</v>
+      </c>
+      <c r="B79">
+        <v>0.0053973732753553163</v>
+      </c>
+      <c r="C79">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>6.9987319490687563</v>
+      </c>
+      <c r="B80">
+        <v>0.005461411448884265</v>
+      </c>
+      <c r="C80">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>7.45014558753582</v>
+      </c>
+      <c r="B81">
+        <v>0.0060276065571158253</v>
+      </c>
+      <c r="C81">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>7.9187345128310351</v>
+      </c>
+      <c r="B82">
+        <v>0.0062419332693773501</v>
+      </c>
+      <c r="C82">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>8.3987576301651767</v>
+      </c>
+      <c r="B83">
+        <v>0.0064077490929259013</v>
+      </c>
+      <c r="C83">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>8.9202896921258219</v>
+      </c>
+      <c r="B84">
+        <v>0.0074659174643332627</v>
+      </c>
+      <c r="C84">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>9.5084483849881867</v>
+      </c>
+      <c r="B85">
+        <v>0.007333385885212965</v>
+      </c>
+      <c r="C85">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>10.103078355750885</v>
+      </c>
+      <c r="B86">
+        <v>0.0087637016050881034</v>
+      </c>
+      <c r="C86">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>10.746647199642391</v>
+      </c>
+      <c r="B87">
+        <v>0.008201680643468337</v>
+      </c>
+      <c r="C87">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>11.396163354738794</v>
+      </c>
+      <c r="B88">
+        <v>0.0090896216433893565</v>
+      </c>
+      <c r="C88">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>12.211986107382215</v>
+      </c>
+      <c r="B89">
+        <v>0.010843580190883894</v>
+      </c>
+      <c r="C89">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>13.033065158188945</v>
+      </c>
+      <c r="B90">
+        <v>0.01096579869682794</v>
+      </c>
+      <c r="C90">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>13.95386741035863</v>
+      </c>
+      <c r="B91">
+        <v>0.012537024877351569</v>
+      </c>
+      <c r="C91">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>15.058990247321852</v>
+      </c>
+      <c r="B92">
+        <v>0.016498953545652395</v>
+      </c>
+      <c r="C92">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>16.378449224221587</v>
+      </c>
+      <c r="B93">
+        <v>0.018445659541223083</v>
+      </c>
+      <c r="C93">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>17.951733681837073</v>
+      </c>
+      <c r="B94">
+        <v>0.022015540553776324</v>
+      </c>
+      <c r="C94">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>19.659827226580994</v>
+      </c>
+      <c r="B95">
+        <v>0.024109029894927931</v>
+      </c>
+      <c r="C95">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>21.838235750854739</v>
+      </c>
+      <c r="B96">
+        <v>0.033304768422240262</v>
+      </c>
+      <c r="C96">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>24.765921066746568</v>
+      </c>
+      <c r="B97">
+        <v>0.044539728894043444</v>
+      </c>
+      <c r="C97">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>29.014360041753484</v>
+      </c>
+      <c r="B98">
+        <v>0.063778947792127241</v>
+      </c>
+      <c r="C98">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>35.906413218950988</v>
+      </c>
+      <c r="B99">
+        <v>0.12520325807559846</v>
+      </c>
+      <c r="C99">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>55.908482980148996</v>
+      </c>
+      <c r="B100">
+        <v>0.68126031726906788</v>
+      </c>
+      <c r="C100">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>-42.439325098405803</v>
+        <v>-27.026753574260276</v>
       </c>
       <c r="B1">
-        <v>4.1576053379399722</v>
+        <v>0.19290930905155523</v>
       </c>
       <c r="C1">
-        <v>285</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-34.800433622587711</v>
+        <v>-10.974822520245631</v>
       </c>
       <c r="B2">
-        <v>4.1606737452687863</v>
+        <v>0.027496794611319382</v>
       </c>
       <c r="C2">
-        <v>218</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-32.921696842580602</v>
+        <v>-6.1247293496970654</v>
       </c>
       <c r="B3">
-        <v>4.5397857057782227</v>
+        <v>0.014422835362076706</v>
       </c>
       <c r="C3">
-        <v>207</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-29.066822098073175</v>
+        <v>-3.233909085353778</v>
       </c>
       <c r="B4">
-        <v>4.4627097723001006</v>
+        <v>0.01017523798017639</v>
       </c>
       <c r="C4">
-        <v>207</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-33.045517054866984</v>
+        <v>-1.06564665774657</v>
       </c>
       <c r="B5">
-        <v>4.6289258156462934</v>
+        <v>0.0085820084700170725</v>
       </c>
       <c r="C5">
-        <v>219</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-35.891585045254111</v>
+        <v>0.7017145134927385</v>
       </c>
       <c r="B6">
-        <v>5.4723697851540045</v>
+        <v>0.0077439527971986761</v>
       </c>
       <c r="C6">
-        <v>194</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-29.641222781546841</v>
+        <v>2.7520188235416931</v>
       </c>
       <c r="B7">
-        <v>4.0169855611398235</v>
+        <v>0.00918149195031801</v>
       </c>
       <c r="C7">
-        <v>227</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-31.818025266743142</v>
+        <v>5.443977897387982</v>
       </c>
       <c r="B8">
-        <v>4.1999571007379952</v>
+        <v>0.013138590686507487</v>
       </c>
       <c r="C8">
-        <v>219</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-38.97155681149713</v>
+        <v>9.968356863670488</v>
       </c>
       <c r="B9">
-        <v>4.3829737911910005</v>
+        <v>0.025337087858605434</v>
       </c>
       <c r="C9">
-        <v>232</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-33.346793992178782</v>
+        <v>25.040908461128133</v>
       </c>
       <c r="B10">
-        <v>4.0653494116400477</v>
+        <v>0.18617933494749644</v>
       </c>
       <c r="C10">
-        <v>252</v>
+        <v>4945</v>
       </c>
     </row>
   </sheetData>

--- a/Data Preparation & Analysis/Outputs/HealthIncomeHistogramm.xlsx
+++ b/Data Preparation & Analysis/Outputs/HealthIncomeHistogramm.xlsx
@@ -10,6 +10,8 @@
     <sheet name="Percentiles" sheetId="2" r:id="rId3"/>
     <sheet name="Percentiles XAxis" sheetId="3" r:id="rId4"/>
     <sheet name="Deciles XAxis" sheetId="4" r:id="rId5"/>
+    <sheet name="Quintiles" sheetId="5" r:id="rId6"/>
+    <sheet name="Quintiles XAxis" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -2506,4 +2508,462 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>-0.64311506870638446</v>
+      </c>
+      <c r="B1">
+        <v>0.89203570826829093</v>
+      </c>
+      <c r="C1">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.33950445789872419</v>
+      </c>
+      <c r="B2">
+        <v>0.85860756974876451</v>
+      </c>
+      <c r="C2">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2.1247869816281466</v>
+      </c>
+      <c r="B3">
+        <v>0.79410763397722939</v>
+      </c>
+      <c r="C3">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2.3665715837305101</v>
+      </c>
+      <c r="B4">
+        <v>0.79164861405267206</v>
+      </c>
+      <c r="C4">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.9665895640199309</v>
+      </c>
+      <c r="B5">
+        <v>0.73041296641296505</v>
+      </c>
+      <c r="C5">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.59005547109712631</v>
+      </c>
+      <c r="B6">
+        <v>0.83454801327019767</v>
+      </c>
+      <c r="C6">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2.4847538957318056</v>
+      </c>
+      <c r="B7">
+        <v>0.72420570623303693</v>
+      </c>
+      <c r="C7">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.013698150597744705</v>
+      </c>
+      <c r="B8">
+        <v>0.75093997868297691</v>
+      </c>
+      <c r="C8">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.72575467268175986</v>
+      </c>
+      <c r="B9">
+        <v>0.77967688195912677</v>
+      </c>
+      <c r="C9">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2.3399335905168397</v>
+      </c>
+      <c r="B10">
+        <v>0.73300080100034493</v>
+      </c>
+      <c r="C10">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>-0.29247407030104822</v>
+      </c>
+      <c r="B11">
+        <v>0.71261718057584245</v>
+      </c>
+      <c r="C11">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.86166416234542043</v>
+      </c>
+      <c r="B12">
+        <v>0.796552964637668</v>
+      </c>
+      <c r="C12">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1.207476446612181</v>
+      </c>
+      <c r="B13">
+        <v>0.75927987996047375</v>
+      </c>
+      <c r="C13">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1.0618838253144693</v>
+      </c>
+      <c r="B14">
+        <v>0.75379528401296991</v>
+      </c>
+      <c r="C14">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.28488369350533616</v>
+      </c>
+      <c r="B15">
+        <v>0.72791422043362441</v>
+      </c>
+      <c r="C15">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.066838171527398238</v>
+      </c>
+      <c r="B16">
+        <v>0.79066094219615213</v>
+      </c>
+      <c r="C16">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>-1.3506598806169126</v>
+      </c>
+      <c r="B17">
+        <v>0.81522793664445203</v>
+      </c>
+      <c r="C17">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>-0.95167608835703921</v>
+      </c>
+      <c r="B18">
+        <v>0.79776481114097031</v>
+      </c>
+      <c r="C18">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>-0.72443666006937424</v>
+      </c>
+      <c r="B19">
+        <v>0.81716337416878071</v>
+      </c>
+      <c r="C19">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>3.7750844855138785</v>
+      </c>
+      <c r="B20">
+        <v>0.91945031207907901</v>
+      </c>
+      <c r="C20">
+        <v>2472</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>-35.83993543385013</v>
+      </c>
+      <c r="B1">
+        <v>0.28976275021348802</v>
+      </c>
+      <c r="C1">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>-18.213571714670419</v>
+      </c>
+      <c r="B2">
+        <v>0.045630011589453991</v>
+      </c>
+      <c r="C2">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>-12.636317009777374</v>
+      </c>
+      <c r="B3">
+        <v>0.023282829844027006</v>
+      </c>
+      <c r="C3">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>-9.3133280307138886</v>
+      </c>
+      <c r="B4">
+        <v>0.015790833743315837</v>
+      </c>
+      <c r="C4">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>-7.0009468134915931</v>
+      </c>
+      <c r="B5">
+        <v>0.011595181114697968</v>
+      </c>
+      <c r="C5">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>-5.2485118859025377</v>
+      </c>
+      <c r="B6">
+        <v>0.0087538641238289784</v>
+      </c>
+      <c r="C6">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>-3.8604753646264185</v>
+      </c>
+      <c r="B7">
+        <v>0.0076338595272923242</v>
+      </c>
+      <c r="C7">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>-2.6075961689114138</v>
+      </c>
+      <c r="B8">
+        <v>0.0061964859777132522</v>
+      </c>
+      <c r="C8">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>-1.5875892795342161</v>
+      </c>
+      <c r="B9">
+        <v>0.0062262759219369693</v>
+      </c>
+      <c r="C9">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>-0.54370403595892369</v>
+      </c>
+      <c r="B10">
+        <v>0.0059572397544874365</v>
+      </c>
+      <c r="C10">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.22393051991325807</v>
+      </c>
+      <c r="B11">
+        <v>0.0044306920384069174</v>
+      </c>
+      <c r="C11">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1.1794985070722188</v>
+      </c>
+      <c r="B12">
+        <v>0.0059667525683353645</v>
+      </c>
+      <c r="C12">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2.1983298023750653</v>
+      </c>
+      <c r="B13">
+        <v>0.0057275444543595493</v>
+      </c>
+      <c r="C13">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>3.3059318289401847</v>
+      </c>
+      <c r="B14">
+        <v>0.0075024241220933204</v>
+      </c>
+      <c r="C14">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>4.6467049469891899</v>
+      </c>
+      <c r="B15">
+        <v>0.0080302898527412955</v>
+      </c>
+      <c r="C15">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>6.2412508477867732</v>
+      </c>
+      <c r="B16">
+        <v>0.010576821818393433</v>
+      </c>
+      <c r="C16">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>8.4392911445935432</v>
+      </c>
+      <c r="B17">
+        <v>0.014883792501862361</v>
+      </c>
+      <c r="C17">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>11.497422582747433</v>
+      </c>
+      <c r="B18">
+        <v>0.02133645887958276</v>
+      </c>
+      <c r="C18">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>16.601097434337351</v>
+      </c>
+      <c r="B19">
+        <v>0.041727051939895489</v>
+      </c>
+      <c r="C19">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>33.484133650955641</v>
+      </c>
+      <c r="B20">
+        <v>0.28161054188670931</v>
+      </c>
+      <c r="C20">
+        <v>2472</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>